--- a/monte.xlsx
+++ b/monte.xlsx
@@ -14,6 +14,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="B_t">Sheet1!$E$14</definedName>
+    <definedName name="f">Sheet1!$E$8</definedName>
+    <definedName name="F_t">Sheet1!$E$15</definedName>
+    <definedName name="k">Sheet1!$E$10</definedName>
+    <definedName name="sigma">Sheet1!$E$9</definedName>
+    <definedName name="t">Sheet1!$E$11</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Esc to STOP</t>
   </si>
@@ -36,6 +44,33 @@
   </si>
   <si>
     <t>stdev</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>B_t</t>
+  </si>
+  <si>
+    <t>E max{k - F, 0}, F = f exp(sigma B_t - sigma^2 t/2)</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>F_t</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -635,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4467AA51-17EE-4E40-B64C-F36363AADBCE}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -646,54 +681,125 @@
     <col min="5" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <f ca="1">RAND()</f>
-        <v>0.87613307112691563</v>
+        <f ca="1">NORMSINV(RAND())</f>
+        <v>-1.7042435033643675</v>
       </c>
       <c r="F2">
         <f ca="1">E2^2</f>
-        <v>0.76760915832228105</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+        <v>2.9044459187596527</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3">
         <f ca="1">_xll.MONTE.MEAN(E2)</f>
-        <v>0.49999930638310758</v>
+        <v>-3.1063497468908404E-3</v>
       </c>
       <c r="F3">
         <f ca="1">_xll.MONTE.MEAN(F2)</f>
-        <v>0.3336295040502808</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+        <v>0.96812196100236458</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(F3-E3^2)</f>
-        <v>0.28918886158822249</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+        <v>0.98392698488943509</v>
+      </c>
+      <c r="G4">
+        <f>SQRT(1/12)</f>
+        <v>0.28867513459481287</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E9">
-        <f t="array" aca="1" ref="E9:F9" ca="1">_xll.MONTE.STDEV(E2)</f>
-        <v>0.49999930638310758</v>
-      </c>
-      <c r="F9">
-        <f ca="1"/>
-        <v>0.28919817761689859</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E12" t="e">
+        <f ca="1">_xll.BLACK.PUT(f, sigma, k, t)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f ca="1">E2*SQRT(t)</f>
+        <v>-0.85212175168218374</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f ca="1">f*EXP(sigma*B_t - sigma^2*t/2)</f>
+        <v>83.910087247118909</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f ca="1">MAX(k-F_t,0)</f>
+        <v>16.089912752881091</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f ca="1">_xll.MONTE.MEAN(E16)</f>
+        <v>3.9421740704798416</v>
       </c>
     </row>
   </sheetData>
